--- a/medicine/Psychotrope/Kouilou_Niaouli/Kouilou_Niaouli.xlsx
+++ b/medicine/Psychotrope/Kouilou_Niaouli/Kouilou_Niaouli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Kouilou Niaouli est une variété de café qui a contribué à l'essor de la caféiculture en Côte d'Ivoire, de la caféiculture à Madagascar et  de la caféiculture au Togo au XXe siècle. Il pousse au Gabon à l’état sauvage et a de plus contribué à l'élaboration du caféier Robusta (Coffea canephora), présent au XXIe siècle dans quatre tasses de café sur dix sur la planète.
 </t>
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le café Kouilou, originaire du Gabon, sera implanté avec succès dès les années 1920 à Madagascar puis en Côte d'Ivoire[1]. La version Kouilou-Niaouli a été mise au point pas les agronomes à l'époque de la colonisation française. Au Dahomey, le futur État du Bénin, des jardins d'essais agricoles avaient été créés au début du XXe siècle à Porto-Novo, Niaouli et Abomey pour acclimater des espèces « nouvelles », utiles au développement économique de l'agriculture. Le jardin botanique de Niaouli, est fondé en 1904 dans une forêt de la colonie du Dahomey. On y a introduit affinée en 1923 la variété « Niaouli », un café très proche sur le plan botanique du Kouilou[1]. Il fait partie des cafés qui ont tendu à l'amélioration des variétés africaines avant le choix du robusta.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le café Kouilou, originaire du Gabon, sera implanté avec succès dès les années 1920 à Madagascar puis en Côte d'Ivoire. La version Kouilou-Niaouli a été mise au point pas les agronomes à l'époque de la colonisation française. Au Dahomey, le futur État du Bénin, des jardins d'essais agricoles avaient été créés au début du XXe siècle à Porto-Novo, Niaouli et Abomey pour acclimater des espèces « nouvelles », utiles au développement économique de l'agriculture. Le jardin botanique de Niaouli, est fondé en 1904 dans une forêt de la colonie du Dahomey. On y a introduit affinée en 1923 la variété « Niaouli », un café très proche sur le plan botanique du Kouilou. Il fait partie des cafés qui ont tendu à l'amélioration des variétés africaines avant le choix du robusta.
 </t>
         </is>
       </c>
